--- a/input/phenotype_microbiome_dog.xlsx
+++ b/input/phenotype_microbiome_dog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\1640042_2_13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\1640042_2_37\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09485918-8469-425E-B816-1F19D4BC21D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D1D852-6904-4198-BF50-8F0A5248BAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58110" yWindow="2130" windowWidth="12705" windowHeight="5625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59295" yWindow="2550" windowWidth="12705" windowHeight="5625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="5" r:id="rId1"/>
@@ -1628,7 +1628,7 @@
   <dimension ref="A1:E1055"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="D203" s="14"/>
       <c r="E203" s="28" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">

--- a/input/phenotype_microbiome_dog.xlsx
+++ b/input/phenotype_microbiome_dog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\66828_2_17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\723134_3_44\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2972C27-A230-4C30-B653-CA9801174A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A47A19A-1F2C-4ACC-B9BC-D3E35A16042A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44970" yWindow="615" windowWidth="16155" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52800" yWindow="4140" windowWidth="17205" windowHeight="615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="278">
   <si>
     <t>Lactobacillus</t>
   </si>
@@ -1681,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8871BB2B-37C0-44CD-B7A8-BCB5971E399A}">
-  <dimension ref="A1:E1078"/>
+  <dimension ref="A1:E1076"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5006,37 +5006,37 @@
         <v>43</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="21" t="s">
         <v>180</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D221" s="14"/>
       <c r="E221" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B222" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C222" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D222" s="20"/>
-      <c r="E222" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C222" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D222" s="14"/>
+      <c r="E222" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="21" t="s">
         <v>180</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>90</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D223" s="14"/>
       <c r="E223" s="28" t="s">
@@ -5059,44 +5059,44 @@
         <v>90</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D224" s="14"/>
       <c r="E224" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="21" t="s">
         <v>180</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D225" s="14"/>
       <c r="E225" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="21" t="s">
         <v>180</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D226" s="14"/>
       <c r="E226" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="21" t="s">
         <v>180</v>
       </c>
@@ -5104,22 +5104,22 @@
         <v>110</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D227" s="14"/>
       <c r="E227" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="21" t="s">
         <v>180</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="D228" s="14"/>
       <c r="E228" s="28" t="s">
@@ -5131,29 +5131,31 @@
         <v>180</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D229" s="14"/>
       <c r="E229" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="21" t="s">
         <v>180</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D230" s="14"/>
+        <v>233</v>
+      </c>
+      <c r="D230" s="27" t="s">
+        <v>126</v>
+      </c>
       <c r="E230" s="28" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
@@ -5161,17 +5163,17 @@
         <v>180</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="D231" s="14"/>
       <c r="E231" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="21" t="s">
         <v>180</v>
       </c>
@@ -5179,11 +5181,9 @@
         <v>232</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="D232" s="27" t="s">
-        <v>126</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="D232" s="14"/>
       <c r="E232" s="28" t="s">
         <v>26</v>
       </c>
@@ -5196,14 +5196,14 @@
         <v>232</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D233" s="14"/>
       <c r="E233" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="21" t="s">
         <v>180</v>
       </c>
@@ -5211,14 +5211,14 @@
         <v>232</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D234" s="14"/>
       <c r="E234" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="21" t="s">
         <v>180</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>232</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="D235" s="14"/>
       <c r="E235" s="28" t="s">
@@ -5241,14 +5241,14 @@
         <v>232</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D236" s="14"/>
       <c r="E236" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="21" t="s">
         <v>180</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>232</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D237" s="14"/>
       <c r="E237" s="28" t="s">
@@ -5271,7 +5271,7 @@
         <v>232</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D238" s="14"/>
       <c r="E238" s="28" t="s">
@@ -5286,7 +5286,7 @@
         <v>232</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D239" s="14"/>
       <c r="E239" s="28" t="s">
@@ -5301,7 +5301,7 @@
         <v>232</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D240" s="14"/>
       <c r="E240" s="28" t="s">
@@ -5316,14 +5316,14 @@
         <v>232</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D241" s="14"/>
       <c r="E241" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="21" t="s">
         <v>180</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>232</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D242" s="14"/>
       <c r="E242" s="28" t="s">
@@ -5346,7 +5346,7 @@
         <v>232</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D243" s="14"/>
       <c r="E243" s="28" t="s">
@@ -5361,14 +5361,14 @@
         <v>232</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D244" s="14"/>
       <c r="E244" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="21" t="s">
         <v>180</v>
       </c>
@@ -5376,14 +5376,14 @@
         <v>232</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D245" s="14"/>
       <c r="E245" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="21" t="s">
         <v>180</v>
       </c>
@@ -5391,14 +5391,14 @@
         <v>232</v>
       </c>
       <c r="C246" s="14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D246" s="14"/>
       <c r="E246" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="21" t="s">
         <v>180</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>232</v>
       </c>
       <c r="C247" s="14" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D247" s="14"/>
       <c r="E247" s="28" t="s">
@@ -5421,7 +5421,7 @@
         <v>232</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D248" s="14"/>
       <c r="E248" s="28" t="s">
@@ -5436,14 +5436,14 @@
         <v>232</v>
       </c>
       <c r="C249" s="14" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D249" s="14"/>
       <c r="E249" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="21" t="s">
         <v>180</v>
       </c>
@@ -5451,67 +5451,67 @@
         <v>232</v>
       </c>
       <c r="C250" s="14" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D250" s="14"/>
       <c r="E250" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="21" t="s">
+    <row r="251" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B251" s="14" t="s">
+      <c r="B251" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="C251" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D251" s="14"/>
-      <c r="E251" s="28" t="s">
+      <c r="C251" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D251" s="20"/>
+      <c r="E251" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="B252" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C252" s="14" t="s">
-        <v>252</v>
+      <c r="A252" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="B252" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="C252" s="66" t="s">
+        <v>269</v>
       </c>
       <c r="D252" s="14"/>
-      <c r="E252" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B253" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="C253" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="D253" s="20"/>
-      <c r="E253" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E252" s="67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="B253" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="C253" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="D253" s="14"/>
+      <c r="E253" s="67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="74" t="s">
         <v>185</v>
       </c>
       <c r="B254" s="66" t="s">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="C254" s="66" t="s">
-        <v>269</v>
+        <v>69</v>
       </c>
       <c r="D254" s="14"/>
       <c r="E254" s="67" t="s">
@@ -5522,11 +5522,11 @@
       <c r="A255" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="B255" s="75" t="s">
-        <v>270</v>
+      <c r="B255" s="66" t="s">
+        <v>68</v>
       </c>
       <c r="C255" s="75" t="s">
-        <v>271</v>
+        <v>70</v>
       </c>
       <c r="D255" s="14"/>
       <c r="E255" s="67" t="s">
@@ -5538,32 +5538,32 @@
         <v>185</v>
       </c>
       <c r="B256" s="66" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C256" s="66" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D256" s="14"/>
       <c r="E256" s="67" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="74" t="s">
         <v>185</v>
       </c>
       <c r="B257" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="C257" s="75" t="s">
-        <v>70</v>
+        <v>90</v>
+      </c>
+      <c r="C257" s="66" t="s">
+        <v>92</v>
       </c>
       <c r="D257" s="14"/>
       <c r="E257" s="67" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="74" t="s">
         <v>185</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>90</v>
       </c>
       <c r="C258" s="66" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D258" s="14"/>
       <c r="E258" s="67" t="s">
@@ -5582,44 +5582,44 @@
       <c r="A259" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="B259" s="66" t="s">
+      <c r="B259" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C259" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="D259" s="14"/>
-      <c r="E259" s="67" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C259" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="D259" s="20"/>
+      <c r="E259" s="69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="74" t="s">
         <v>185</v>
       </c>
       <c r="B260" s="66" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="C260" s="66" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="D260" s="14"/>
       <c r="E260" s="67" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="B261" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="C261" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="D261" s="20"/>
-      <c r="E261" s="69" t="s">
+      <c r="B261" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C261" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="D261" s="14"/>
+      <c r="E261" s="67" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5628,14 +5628,14 @@
         <v>185</v>
       </c>
       <c r="B262" s="66" t="s">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="C262" s="66" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="D262" s="14"/>
       <c r="E262" s="67" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5643,28 +5643,28 @@
         <v>185</v>
       </c>
       <c r="B263" s="66" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C263" s="66" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D263" s="14"/>
       <c r="E263" s="67" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="B264" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="C264" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="D264" s="14"/>
-      <c r="E264" s="67" t="s">
+      <c r="B264" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="C264" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D264" s="20"/>
+      <c r="E264" s="69" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5673,62 +5673,62 @@
         <v>185</v>
       </c>
       <c r="B265" s="66" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C265" s="66" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D265" s="14"/>
       <c r="E265" s="67" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="74" t="s">
+      <c r="A266" s="76" t="s">
         <v>185</v>
       </c>
       <c r="B266" s="68" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="C266" s="68" t="s">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="D266" s="20"/>
       <c r="E266" s="69" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="B267" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="C267" s="66" t="s">
-        <v>275</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B267" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C267" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="D267" s="14"/>
-      <c r="E267" s="67" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="76" t="s">
-        <v>185</v>
-      </c>
-      <c r="B268" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="C268" s="68" t="s">
-        <v>277</v>
-      </c>
-      <c r="D268" s="20"/>
-      <c r="E268" s="69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E267" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B268" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C268" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D268" s="14"/>
+      <c r="E268" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="39" t="s">
         <v>186</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>90</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D269" s="14"/>
       <c r="E269" s="28" t="s">
@@ -5744,81 +5744,81 @@
       </c>
     </row>
     <row r="270" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="39" t="s">
+      <c r="A270" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="B270" s="14" t="s">
+      <c r="B270" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C270" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D270" s="14"/>
-      <c r="E270" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="B271" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C271" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D271" s="14"/>
-      <c r="E271" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="B272" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C272" s="20" t="s">
+      <c r="C270" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D272" s="20"/>
-      <c r="E272" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D270" s="20"/>
+      <c r="E270" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D271" s="5"/>
+      <c r="E271" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D272" s="5"/>
+      <c r="E272" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>189</v>
+        <v>4</v>
       </c>
       <c r="D273" s="5"/>
       <c r="E273" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>190</v>
+        <v>88</v>
       </c>
       <c r="D274" s="5"/>
       <c r="E274" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>187</v>
       </c>
@@ -5826,22 +5826,22 @@
         <v>1</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="10" t="s">
@@ -5853,17 +5853,17 @@
         <v>187</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>187</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>90</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="10" t="s">
@@ -5886,54 +5886,56 @@
         <v>90</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D282" s="5"/>
+        <v>192</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="E282" s="10" t="s">
         <v>26</v>
       </c>
@@ -5943,10 +5945,10 @@
         <v>187</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="10" t="s">
@@ -5961,11 +5963,9 @@
         <v>191</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D284" s="5" t="s">
-        <v>193</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D284" s="5"/>
       <c r="E284" s="10" t="s">
         <v>26</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>191</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="10" t="s">
@@ -5993,7 +5993,7 @@
         <v>191</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="10" t="s">
@@ -6008,7 +6008,7 @@
         <v>191</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="10" t="s">
@@ -6023,7 +6023,7 @@
         <v>191</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="10" t="s">
@@ -6038,74 +6038,74 @@
         <v>191</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="4" t="s">
+    <row r="290" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B290" s="5" t="s">
+      <c r="B290" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C290" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D290" s="5"/>
-      <c r="E290" s="10" t="s">
+      <c r="C290" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D290" s="8"/>
+      <c r="E290" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B292" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C292" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D292" s="8"/>
-      <c r="E292" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D292" s="5"/>
+      <c r="E292" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="D293" s="5"/>
       <c r="E293" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>202</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>90</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="10" t="s">
@@ -6128,37 +6128,37 @@
         <v>90</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="10" t="s">
@@ -6170,10 +6170,10 @@
         <v>202</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="10" t="s">
@@ -6185,10 +6185,10 @@
         <v>202</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="10" t="s">
@@ -6200,59 +6200,59 @@
         <v>202</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B301" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D301" s="5"/>
-      <c r="E301" s="10" t="s">
-        <v>26</v>
+      <c r="B301" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C301" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D301" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E301" s="38" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B302" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C302" s="5" t="s">
-        <v>99</v>
+      <c r="B302" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C302" s="37" t="s">
+        <v>8</v>
       </c>
       <c r="D302" s="5"/>
-      <c r="E302" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E302" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B303" s="37" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="C303" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D303" s="37" t="s">
-        <v>47</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D303" s="5"/>
       <c r="E303" s="38" t="s">
         <v>43</v>
       </c>
@@ -6262,10 +6262,10 @@
         <v>202</v>
       </c>
       <c r="B304" s="37" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C304" s="37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="38" t="s">
@@ -6277,10 +6277,10 @@
         <v>202</v>
       </c>
       <c r="B305" s="37" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="C305" s="37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="38" t="s">
@@ -6288,51 +6288,51 @@
       </c>
     </row>
     <row r="306" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="4" t="s">
+      <c r="A306" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B306" s="37" t="s">
+      <c r="B306" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C306" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D306" s="5"/>
-      <c r="E306" s="38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C306" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D306" s="8"/>
+      <c r="E306" s="54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B307" s="37" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="C307" s="37" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D307" s="5"/>
       <c r="E307" s="38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B308" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C308" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D308" s="8"/>
-      <c r="E308" s="54" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B308" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C308" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D308" s="5"/>
+      <c r="E308" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>203</v>
       </c>
@@ -6340,41 +6340,41 @@
         <v>85</v>
       </c>
       <c r="C309" s="37" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B310" s="37" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="C310" s="37" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B311" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C311" s="37" t="s">
-        <v>35</v>
+      <c r="B311" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="D311" s="5"/>
-      <c r="E311" s="38" t="s">
-        <v>26</v>
+      <c r="E311" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6382,118 +6382,118 @@
         <v>203</v>
       </c>
       <c r="B312" s="37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C312" s="37" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B313" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="C313" s="5" t="s">
-        <v>97</v>
+      <c r="B313" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C313" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="D313" s="5"/>
-      <c r="E313" s="10" t="s">
-        <v>43</v>
+      <c r="E313" s="38" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B314" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="C314" s="37" t="s">
-        <v>206</v>
+      <c r="B314" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D314" s="5"/>
-      <c r="E314" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E314" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B315" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="C315" s="37" t="s">
-        <v>207</v>
+      <c r="B315" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="D315" s="5"/>
-      <c r="E315" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="4" t="s">
+      <c r="E315" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B316" s="5" t="s">
+      <c r="B316" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C316" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D316" s="5"/>
-      <c r="E316" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C316" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D316" s="8"/>
+      <c r="E316" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B317" s="5" t="s">
-        <v>18</v>
+        <v>208</v>
+      </c>
+      <c r="B317" s="55" t="s">
+        <v>209</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>6</v>
+        <v>210</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B318" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C318" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D318" s="8"/>
-      <c r="E318" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B318" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C318" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D318" s="5"/>
+      <c r="E318" s="78" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B319" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="C319" s="5" t="s">
-        <v>210</v>
+      <c r="B319" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C319" s="77" t="s">
+        <v>87</v>
       </c>
       <c r="D319" s="5"/>
-      <c r="E319" s="10" t="s">
+      <c r="E319" s="78" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
         <v>85</v>
       </c>
       <c r="C320" s="77" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="78" t="s">
@@ -6517,10 +6517,10 @@
         <v>208</v>
       </c>
       <c r="B321" s="77" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C321" s="77" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="78" t="s">
@@ -6532,10 +6532,10 @@
         <v>208</v>
       </c>
       <c r="B322" s="77" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C322" s="77" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="78" t="s">
@@ -6547,85 +6547,85 @@
         <v>208</v>
       </c>
       <c r="B323" s="77" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C323" s="77" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="78" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="4" t="s">
+      <c r="A324" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B324" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C324" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="D324" s="5"/>
-      <c r="E324" s="78" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B325" s="77" t="s">
+      <c r="B324" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C324" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D324" s="8"/>
+      <c r="E324" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="B325" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C325" s="77" t="s">
+      <c r="C325" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D325" s="5"/>
-      <c r="E325" s="78" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B326" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="C326" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D326" s="8"/>
-      <c r="E326" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="64" t="s">
-        <v>211</v>
-      </c>
-      <c r="B327" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C327" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D327" s="8"/>
-      <c r="E327" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D325" s="8"/>
+      <c r="E325" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D326" s="5"/>
+      <c r="E326" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D327" s="5"/>
+      <c r="E327" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="4" t="s">
         <v>254</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C328" s="5" t="s">
-        <v>49</v>
+        <v>68</v>
+      </c>
+      <c r="C328" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="10" t="s">
@@ -6637,10 +6637,10 @@
         <v>254</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="10" t="s">
@@ -6652,10 +6652,10 @@
         <v>254</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C330" s="32" t="s">
-        <v>70</v>
+        <v>181</v>
+      </c>
+      <c r="C330" s="52" t="s">
+        <v>126</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="10" t="s">
@@ -6667,120 +6667,104 @@
         <v>254</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>254</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C332" s="52" t="s">
-        <v>126</v>
+        <v>50</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>254</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>254</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>254</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="10" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="4" t="s">
+      <c r="A336" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B336" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C336" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D336" s="5"/>
-      <c r="E336" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C337" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D337" s="5"/>
-      <c r="E337" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B338" s="8" t="s">
+      <c r="B336" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C338" s="8" t="s">
+      <c r="C336" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D338" s="8"/>
-      <c r="E338" s="12" t="s">
-        <v>43</v>
-      </c>
+      <c r="D336" s="8"/>
+      <c r="E336" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="57"/>
+      <c r="B337" s="58"/>
+      <c r="C337" s="58"/>
+      <c r="D337" s="58"/>
+      <c r="E337" s="58"/>
+    </row>
+    <row r="338" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="57"/>
+      <c r="B338" s="58"/>
+      <c r="C338" s="58"/>
+      <c r="D338" s="58"/>
+      <c r="E338" s="58"/>
     </row>
     <row r="339" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="57"/>
@@ -11948,20 +11932,6 @@
       <c r="D1076" s="58"/>
       <c r="E1076" s="58"/>
     </row>
-    <row r="1077" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1077" s="57"/>
-      <c r="B1077" s="58"/>
-      <c r="C1077" s="58"/>
-      <c r="D1077" s="58"/>
-      <c r="E1077" s="58"/>
-    </row>
-    <row r="1078" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1078" s="57"/>
-      <c r="B1078" s="58"/>
-      <c r="C1078" s="58"/>
-      <c r="D1078" s="58"/>
-      <c r="E1078" s="58"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/phenotype_microbiome_dog.xlsx
+++ b/input/phenotype_microbiome_dog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\525578_6_44\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\91882876_3_12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF04603E-9F38-4449-AD08-3770324EDD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FE51EB-39F5-45AC-AFBA-2905BC76E465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55440" yWindow="1650" windowWidth="13275" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="5" r:id="rId1"/>
@@ -340,9 +340,6 @@
     <t>Faecalibacterium prausnitzii</t>
   </si>
   <si>
-    <t>s__Faecalibacterium prausnitzii</t>
-  </si>
-  <si>
     <t>Bacteroides uniformis</t>
   </si>
   <si>
@@ -870,6 +867,10 @@
   </si>
   <si>
     <t>g__Lactococcus</t>
+  </si>
+  <si>
+    <t>s__Faecalibacterium_prausnitzii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1682,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8871BB2B-37C0-44CD-B7A8-BCB5971E399A}">
   <dimension ref="A1:E1076"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2087,7 +2088,7 @@
         <v>59</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>60</v>
@@ -2704,10 +2705,10 @@
         <v>95</v>
       </c>
       <c r="B68" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="9" t="s">
@@ -2722,7 +2723,7 @@
         <v>100</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="9" t="s">
@@ -2794,10 +2795,10 @@
         <v>95</v>
       </c>
       <c r="B74" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="11" t="s">
@@ -2806,7 +2807,7 @@
     </row>
     <row r="75" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B75" s="65" t="s">
         <v>1</v>
@@ -2821,7 +2822,7 @@
     </row>
     <row r="76" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B76" s="65" t="s">
         <v>1</v>
@@ -2836,7 +2837,7 @@
     </row>
     <row r="77" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B77" s="65" t="s">
         <v>1</v>
@@ -2851,13 +2852,13 @@
     </row>
     <row r="78" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B78" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="65" t="s">
         <v>107</v>
-      </c>
-      <c r="C78" s="65" t="s">
-        <v>108</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="66" t="s">
@@ -2866,13 +2867,13 @@
     </row>
     <row r="79" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B79" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="66" t="s">
@@ -2881,13 +2882,13 @@
     </row>
     <row r="80" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="C80" s="65" t="s">
         <v>255</v>
-      </c>
-      <c r="C80" s="65" t="s">
-        <v>256</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="66" t="s">
@@ -2896,13 +2897,13 @@
     </row>
     <row r="81" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B81" s="65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C81" s="65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="66" t="s">
@@ -2911,13 +2912,13 @@
     </row>
     <row r="82" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B82" s="65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C82" s="65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="66" t="s">
@@ -2926,13 +2927,13 @@
     </row>
     <row r="83" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B83" s="65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C83" s="65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="66" t="s">
@@ -2941,13 +2942,13 @@
     </row>
     <row r="84" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B84" s="65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C84" s="65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="66" t="s">
@@ -2956,13 +2957,13 @@
     </row>
     <row r="85" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B85" s="65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C85" s="65" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="66" t="s">
@@ -2971,7 +2972,7 @@
     </row>
     <row r="86" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B86" s="65" t="s">
         <v>50</v>
@@ -2986,7 +2987,7 @@
     </row>
     <row r="87" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B87" s="67" t="s">
         <v>50</v>
@@ -3001,13 +3002,13 @@
     </row>
     <row r="88" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="C88" s="22" t="s">
         <v>105</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>106</v>
       </c>
       <c r="D88" s="22"/>
       <c r="E88" s="33" t="s">
@@ -3016,13 +3017,13 @@
     </row>
     <row r="89" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B89" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>111</v>
       </c>
       <c r="D89" s="22"/>
       <c r="E89" s="33" t="s">
@@ -3031,13 +3032,13 @@
     </row>
     <row r="90" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D90" s="22"/>
       <c r="E90" s="33" t="s">
@@ -3046,13 +3047,13 @@
     </row>
     <row r="91" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D91" s="22"/>
       <c r="E91" s="33" t="s">
@@ -3061,13 +3062,13 @@
     </row>
     <row r="92" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B92" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="22" t="s">
         <v>114</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>115</v>
       </c>
       <c r="D92" s="22"/>
       <c r="E92" s="33" t="s">
@@ -3076,13 +3077,13 @@
     </row>
     <row r="93" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D93" s="22"/>
       <c r="E93" s="33" t="s">
@@ -3091,13 +3092,13 @@
     </row>
     <row r="94" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D94" s="34"/>
       <c r="E94" s="35" t="s">
@@ -3106,13 +3107,13 @@
     </row>
     <row r="95" spans="1:5" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B95" s="59" t="s">
+      <c r="C95" s="36" t="s">
         <v>119</v>
-      </c>
-      <c r="C95" s="36" t="s">
-        <v>120</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="37" t="s">
@@ -3121,7 +3122,7 @@
     </row>
     <row r="96" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>18</v>
@@ -3136,7 +3137,7 @@
     </row>
     <row r="97" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>18</v>
@@ -3151,7 +3152,7 @@
     </row>
     <row r="98" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>18</v>
@@ -3166,13 +3167,13 @@
     </row>
     <row r="99" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="C99" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="27" t="s">
@@ -3181,13 +3182,13 @@
     </row>
     <row r="100" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B100" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="27" t="s">
@@ -3196,13 +3197,13 @@
     </row>
     <row r="101" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="27" t="s">
@@ -3211,13 +3212,13 @@
     </row>
     <row r="102" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="27" t="s">
@@ -3226,7 +3227,7 @@
     </row>
     <row r="103" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>68</v>
@@ -3241,7 +3242,7 @@
     </row>
     <row r="104" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>68</v>
@@ -3256,13 +3257,13 @@
     </row>
     <row r="105" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B105" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" s="39" t="s">
         <v>110</v>
-      </c>
-      <c r="C105" s="39" t="s">
-        <v>111</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="27" t="s">
@@ -3271,13 +3272,13 @@
     </row>
     <row r="106" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B106" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C106" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="27" t="s">
@@ -3286,13 +3287,13 @@
     </row>
     <row r="107" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C107" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="27" t="s">
@@ -3301,10 +3302,10 @@
     </row>
     <row r="108" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B108" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="65" t="s">
         <v>7</v>
@@ -3316,13 +3317,13 @@
     </row>
     <row r="109" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B109" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="C109" s="67" t="s">
         <v>262</v>
-      </c>
-      <c r="C109" s="67" t="s">
-        <v>263</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="68" t="s">
@@ -3331,13 +3332,13 @@
     </row>
     <row r="110" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B110" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C110" s="41" t="s">
         <v>214</v>
-      </c>
-      <c r="B110" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C110" s="41" t="s">
-        <v>215</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="60" t="s">
@@ -3346,7 +3347,7 @@
     </row>
     <row r="111" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B111" s="39" t="s">
         <v>68</v>
@@ -3361,7 +3362,7 @@
     </row>
     <row r="112" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B112" s="39" t="s">
         <v>68</v>
@@ -3376,7 +3377,7 @@
     </row>
     <row r="113" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B113" s="39" t="s">
         <v>55</v>
@@ -3391,7 +3392,7 @@
     </row>
     <row r="114" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B114" s="41" t="s">
         <v>48</v>
@@ -3406,13 +3407,13 @@
     </row>
     <row r="115" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B115" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C115" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>217</v>
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="27" t="s">
@@ -3421,13 +3422,13 @@
     </row>
     <row r="116" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B116" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C116" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="27" t="s">
@@ -3436,13 +3437,13 @@
     </row>
     <row r="117" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B117" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C117" s="19" t="s">
         <v>220</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>221</v>
       </c>
       <c r="D117" s="19"/>
       <c r="E117" s="14" t="s">
@@ -3451,7 +3452,7 @@
     </row>
     <row r="118" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>50</v>
@@ -3466,7 +3467,7 @@
     </row>
     <row r="119" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>50</v>
@@ -3481,13 +3482,13 @@
     </row>
     <row r="120" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="C120" s="31" t="s">
         <v>125</v>
-      </c>
-      <c r="C120" s="31" t="s">
-        <v>126</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="9" t="s">
@@ -3496,7 +3497,7 @@
     </row>
     <row r="121" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>0</v>
@@ -3511,7 +3512,7 @@
     </row>
     <row r="122" spans="1:5" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>45</v>
@@ -3528,7 +3529,7 @@
     </row>
     <row r="123" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>18</v>
@@ -3543,7 +3544,7 @@
     </row>
     <row r="124" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>18</v>
@@ -3558,7 +3559,7 @@
     </row>
     <row r="125" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>18</v>
@@ -3573,13 +3574,13 @@
     </row>
     <row r="126" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="C126" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="9" t="s">
@@ -3588,10 +3589,10 @@
     </row>
     <row r="127" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>82</v>
@@ -3603,13 +3604,13 @@
     </row>
     <row r="128" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="C128" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="9" t="s">
@@ -3618,13 +3619,13 @@
     </row>
     <row r="129" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B129" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="C129" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="9" t="s">
@@ -3633,13 +3634,13 @@
     </row>
     <row r="130" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="C130" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="9" t="s">
@@ -3648,13 +3649,13 @@
     </row>
     <row r="131" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B131" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="C131" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="9" t="s">
@@ -3663,13 +3664,13 @@
     </row>
     <row r="132" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B132" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="C132" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="9" t="s">
@@ -3678,7 +3679,7 @@
     </row>
     <row r="133" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>96</v>
@@ -3693,7 +3694,7 @@
     </row>
     <row r="134" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>1</v>
@@ -3708,7 +3709,7 @@
     </row>
     <row r="135" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>1</v>
@@ -3723,7 +3724,7 @@
     </row>
     <row r="136" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>1</v>
@@ -3738,13 +3739,13 @@
     </row>
     <row r="137" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B137" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="9" t="s">
@@ -3753,13 +3754,13 @@
     </row>
     <row r="138" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B138" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="9" t="s">
@@ -3768,13 +3769,13 @@
     </row>
     <row r="139" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="11" t="s">
@@ -3783,7 +3784,7 @@
     </row>
     <row r="140" spans="1:5" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" s="13" t="s">
         <v>45</v>
@@ -3800,7 +3801,7 @@
     </row>
     <row r="141" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="15" t="s">
         <v>1</v>
@@ -3815,7 +3816,7 @@
     </row>
     <row r="142" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" s="15" t="s">
         <v>1</v>
@@ -3830,7 +3831,7 @@
     </row>
     <row r="143" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B143" s="15" t="s">
         <v>1</v>
@@ -3845,7 +3846,7 @@
     </row>
     <row r="144" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B144" s="15" t="s">
         <v>68</v>
@@ -3860,7 +3861,7 @@
     </row>
     <row r="145" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B145" s="15" t="s">
         <v>68</v>
@@ -3875,7 +3876,7 @@
     </row>
     <row r="146" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B146" s="65" t="s">
         <v>90</v>
@@ -3890,7 +3891,7 @@
     </row>
     <row r="147" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B147" s="65" t="s">
         <v>90</v>
@@ -3905,7 +3906,7 @@
     </row>
     <row r="148" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B148" s="65" t="s">
         <v>90</v>
@@ -3920,7 +3921,7 @@
     </row>
     <row r="149" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B149" s="65" t="s">
         <v>90</v>
@@ -3935,7 +3936,7 @@
     </row>
     <row r="150" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B150" s="13" t="s">
         <v>53</v>
@@ -3950,13 +3951,13 @@
     </row>
     <row r="151" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B151" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B151" s="13" t="s">
+      <c r="C151" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="D151" s="13"/>
       <c r="E151" s="27" t="s">
@@ -3965,13 +3966,13 @@
     </row>
     <row r="152" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B152" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B152" s="19" t="s">
-        <v>141</v>
-      </c>
       <c r="C152" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D152" s="19"/>
       <c r="E152" s="14" t="s">
@@ -3980,7 +3981,7 @@
     </row>
     <row r="153" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>68</v>
@@ -3995,7 +3996,7 @@
     </row>
     <row r="154" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>68</v>
@@ -4010,7 +4011,7 @@
     </row>
     <row r="155" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>81</v>
@@ -4025,13 +4026,13 @@
     </row>
     <row r="156" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B156" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="C156" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="11" t="s">
@@ -4040,13 +4041,13 @@
     </row>
     <row r="157" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B157" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="B157" s="43" t="s">
+      <c r="C157" s="44" t="s">
         <v>147</v>
-      </c>
-      <c r="C157" s="44" t="s">
-        <v>148</v>
       </c>
       <c r="D157" s="22"/>
       <c r="E157" s="45" t="s">
@@ -4055,7 +4056,7 @@
     </row>
     <row r="158" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B158" s="13" t="s">
         <v>1</v>
@@ -4070,7 +4071,7 @@
     </row>
     <row r="159" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B159" s="13" t="s">
         <v>1</v>
@@ -4085,7 +4086,7 @@
     </row>
     <row r="160" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B160" s="13" t="s">
         <v>1</v>
@@ -4100,7 +4101,7 @@
     </row>
     <row r="161" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B161" s="13" t="s">
         <v>85</v>
@@ -4115,7 +4116,7 @@
     </row>
     <row r="162" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B162" s="13" t="s">
         <v>85</v>
@@ -4130,7 +4131,7 @@
     </row>
     <row r="163" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>85</v>
@@ -4145,7 +4146,7 @@
     </row>
     <row r="164" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B164" s="65" t="s">
         <v>71</v>
@@ -4160,13 +4161,13 @@
     </row>
     <row r="165" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B165" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C165" s="69" t="s">
         <v>209</v>
-      </c>
-      <c r="C165" s="69" t="s">
-        <v>210</v>
       </c>
       <c r="D165" s="22"/>
       <c r="E165" s="70" t="s">
@@ -4175,13 +4176,13 @@
     </row>
     <row r="166" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B166" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C166" s="69" t="s">
         <v>177</v>
-      </c>
-      <c r="C166" s="69" t="s">
-        <v>178</v>
       </c>
       <c r="D166" s="22"/>
       <c r="E166" s="70" t="s">
@@ -4190,13 +4191,13 @@
     </row>
     <row r="167" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B167" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="C167" s="71" t="s">
         <v>264</v>
-      </c>
-      <c r="C167" s="71" t="s">
-        <v>265</v>
       </c>
       <c r="D167" s="34"/>
       <c r="E167" s="72" t="s">
@@ -4205,7 +4206,7 @@
     </row>
     <row r="168" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B168" s="39" t="s">
         <v>53</v>
@@ -4220,13 +4221,13 @@
     </row>
     <row r="169" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B169" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="B169" s="39" t="s">
+      <c r="C169" s="39" t="s">
         <v>150</v>
-      </c>
-      <c r="C169" s="39" t="s">
-        <v>151</v>
       </c>
       <c r="D169" s="13"/>
       <c r="E169" s="27" t="s">
@@ -4235,13 +4236,13 @@
     </row>
     <row r="170" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B170" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="B170" s="39" t="s">
-        <v>150</v>
-      </c>
       <c r="C170" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D170" s="13"/>
       <c r="E170" s="27" t="s">
@@ -4250,7 +4251,7 @@
     </row>
     <row r="171" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B171" s="39" t="s">
         <v>57</v>
@@ -4265,13 +4266,13 @@
     </row>
     <row r="172" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B172" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C172" s="39" t="s">
         <v>110</v>
-      </c>
-      <c r="C172" s="39" t="s">
-        <v>111</v>
       </c>
       <c r="D172" s="13"/>
       <c r="E172" s="27" t="s">
@@ -4280,13 +4281,13 @@
     </row>
     <row r="173" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B173" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C173" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D173" s="13"/>
       <c r="E173" s="27" t="s">
@@ -4295,13 +4296,13 @@
     </row>
     <row r="174" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B174" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C174" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D174" s="13"/>
       <c r="E174" s="27" t="s">
@@ -4310,7 +4311,7 @@
     </row>
     <row r="175" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B175" s="39" t="s">
         <v>24</v>
@@ -4325,7 +4326,7 @@
     </row>
     <row r="176" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B176" s="39" t="s">
         <v>24</v>
@@ -4340,13 +4341,13 @@
     </row>
     <row r="177" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B177" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="C177" s="65" t="s">
         <v>266</v>
-      </c>
-      <c r="C177" s="65" t="s">
-        <v>267</v>
       </c>
       <c r="D177" s="13"/>
       <c r="E177" s="66" t="s">
@@ -4355,7 +4356,7 @@
     </row>
     <row r="178" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B178" s="39" t="s">
         <v>55</v>
@@ -4370,7 +4371,7 @@
     </row>
     <row r="179" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B179" s="41" t="s">
         <v>96</v>
@@ -4385,13 +4386,13 @@
     </row>
     <row r="180" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B180" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="C180" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="D180" s="64"/>
       <c r="E180" s="64" t="s">
@@ -4400,13 +4401,13 @@
     </row>
     <row r="181" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B181" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C181" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="9" t="s">
@@ -4415,13 +4416,13 @@
     </row>
     <row r="182" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="9" t="s">
@@ -4430,7 +4431,7 @@
     </row>
     <row r="183" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>53</v>
@@ -4445,10 +4446,10 @@
     </row>
     <row r="184" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B184" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="B184" s="21" t="s">
-        <v>158</v>
       </c>
       <c r="C184" s="26" t="s">
         <v>60</v>
@@ -4460,7 +4461,7 @@
     </row>
     <row r="185" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B185" s="21" t="s">
         <v>90</v>
@@ -4469,7 +4470,7 @@
         <v>91</v>
       </c>
       <c r="D185" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E185" s="27" t="s">
         <v>26</v>
@@ -4477,7 +4478,7 @@
     </row>
     <row r="186" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B186" s="21" t="s">
         <v>90</v>
@@ -4492,7 +4493,7 @@
     </row>
     <row r="187" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B187" s="21" t="s">
         <v>90</v>
@@ -4507,7 +4508,7 @@
     </row>
     <row r="188" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B188" s="21" t="s">
         <v>90</v>
@@ -4522,13 +4523,13 @@
     </row>
     <row r="189" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B189" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C189" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="C189" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="D189" s="13"/>
       <c r="E189" s="27" t="s">
@@ -4537,13 +4538,13 @@
     </row>
     <row r="190" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D190" s="13"/>
       <c r="E190" s="27" t="s">
@@ -4552,16 +4553,16 @@
     </row>
     <row r="191" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B191" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C191" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C191" s="13" t="s">
-        <v>129</v>
-      </c>
       <c r="D191" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E191" s="27" t="s">
         <v>26</v>
@@ -4569,10 +4570,10 @@
     </row>
     <row r="192" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C192" s="13" t="s">
         <v>82</v>
@@ -4584,13 +4585,13 @@
     </row>
     <row r="193" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D193" s="13"/>
       <c r="E193" s="27" t="s">
@@ -4599,13 +4600,13 @@
     </row>
     <row r="194" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D194" s="13"/>
       <c r="E194" s="27" t="s">
@@ -4614,13 +4615,13 @@
     </row>
     <row r="195" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D195" s="13"/>
       <c r="E195" s="27" t="s">
@@ -4629,13 +4630,13 @@
     </row>
     <row r="196" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D196" s="13"/>
       <c r="E196" s="27" t="s">
@@ -4644,13 +4645,13 @@
     </row>
     <row r="197" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D197" s="13"/>
       <c r="E197" s="27" t="s">
@@ -4659,13 +4660,13 @@
     </row>
     <row r="198" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D198" s="13"/>
       <c r="E198" s="27" t="s">
@@ -4674,13 +4675,13 @@
     </row>
     <row r="199" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D199" s="13"/>
       <c r="E199" s="27" t="s">
@@ -4689,7 +4690,7 @@
     </row>
     <row r="200" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B200" s="24" t="s">
         <v>53</v>
@@ -4704,7 +4705,7 @@
     </row>
     <row r="201" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>68</v>
@@ -4719,7 +4720,7 @@
     </row>
     <row r="202" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>68</v>
@@ -4734,7 +4735,7 @@
     </row>
     <row r="203" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>50</v>
@@ -4749,7 +4750,7 @@
     </row>
     <row r="204" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>50</v>
@@ -4764,7 +4765,7 @@
     </row>
     <row r="205" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>98</v>
@@ -4779,10 +4780,10 @@
     </row>
     <row r="206" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B206" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="B206" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>7</v>
@@ -4794,13 +4795,13 @@
     </row>
     <row r="207" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B207" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B207" s="13" t="s">
+      <c r="C207" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="C207" s="13" t="s">
-        <v>169</v>
       </c>
       <c r="D207" s="13"/>
       <c r="E207" s="27" t="s">
@@ -4809,13 +4810,13 @@
     </row>
     <row r="208" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D208" s="13"/>
       <c r="E208" s="27" t="s">
@@ -4824,13 +4825,13 @@
     </row>
     <row r="209" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D209" s="13"/>
       <c r="E209" s="27" t="s">
@@ -4839,13 +4840,13 @@
     </row>
     <row r="210" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C210" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D210" s="19"/>
       <c r="E210" s="14" t="s">
@@ -4854,13 +4855,13 @@
     </row>
     <row r="211" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B211" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C211" s="50" t="s">
         <v>224</v>
-      </c>
-      <c r="C211" s="50" t="s">
-        <v>225</v>
       </c>
       <c r="D211" s="13"/>
       <c r="E211" s="27" t="s">
@@ -4869,13 +4870,13 @@
     </row>
     <row r="212" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B212" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="C212" s="50" t="s">
         <v>226</v>
-      </c>
-      <c r="C212" s="50" t="s">
-        <v>227</v>
       </c>
       <c r="D212" s="13"/>
       <c r="E212" s="27" t="s">
@@ -4884,7 +4885,7 @@
     </row>
     <row r="213" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B213" s="34" t="s">
         <v>28</v>
@@ -4899,13 +4900,13 @@
     </row>
     <row r="214" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="C214" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="9" t="s">
@@ -4914,13 +4915,13 @@
     </row>
     <row r="215" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B215" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C215" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D215" s="4"/>
       <c r="E215" s="9" t="s">
@@ -4929,13 +4930,13 @@
     </row>
     <row r="216" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B216" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C216" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="9" t="s">
@@ -4944,13 +4945,13 @@
     </row>
     <row r="217" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="9" t="s">
@@ -4959,13 +4960,13 @@
     </row>
     <row r="218" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D218" s="4"/>
       <c r="E218" s="9" t="s">
@@ -4974,7 +4975,7 @@
     </row>
     <row r="219" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>96</v>
@@ -4989,10 +4990,10 @@
     </row>
     <row r="220" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A220" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B220" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C220" s="49" t="s">
         <v>7</v>
@@ -5004,7 +5005,7 @@
     </row>
     <row r="221" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B221" s="13" t="s">
         <v>90</v>
@@ -5019,7 +5020,7 @@
     </row>
     <row r="222" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B222" s="13" t="s">
         <v>90</v>
@@ -5034,7 +5035,7 @@
     </row>
     <row r="223" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B223" s="13" t="s">
         <v>90</v>
@@ -5049,7 +5050,7 @@
     </row>
     <row r="224" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B224" s="13" t="s">
         <v>90</v>
@@ -5064,13 +5065,13 @@
     </row>
     <row r="225" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B225" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C225" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="C225" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="D225" s="13"/>
       <c r="E225" s="27" t="s">
@@ -5079,13 +5080,13 @@
     </row>
     <row r="226" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D226" s="13"/>
       <c r="E226" s="27" t="s">
@@ -5094,13 +5095,13 @@
     </row>
     <row r="227" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D227" s="13"/>
       <c r="E227" s="27" t="s">
@@ -5109,13 +5110,13 @@
     </row>
     <row r="228" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B228" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C228" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="C228" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="D228" s="13"/>
       <c r="E228" s="27" t="s">
@@ -5124,13 +5125,13 @@
     </row>
     <row r="229" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B229" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C229" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="C229" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="D229" s="13"/>
       <c r="E229" s="27" t="s">
@@ -5139,16 +5140,16 @@
     </row>
     <row r="230" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B230" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C230" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C230" s="13" t="s">
-        <v>233</v>
-      </c>
       <c r="D230" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E230" s="27" t="s">
         <v>26</v>
@@ -5156,13 +5157,13 @@
     </row>
     <row r="231" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D231" s="13"/>
       <c r="E231" s="27" t="s">
@@ -5171,13 +5172,13 @@
     </row>
     <row r="232" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D232" s="13"/>
       <c r="E232" s="27" t="s">
@@ -5186,13 +5187,13 @@
     </row>
     <row r="233" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D233" s="13"/>
       <c r="E233" s="27" t="s">
@@ -5201,13 +5202,13 @@
     </row>
     <row r="234" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D234" s="13"/>
       <c r="E234" s="27" t="s">
@@ -5216,13 +5217,13 @@
     </row>
     <row r="235" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D235" s="13"/>
       <c r="E235" s="27" t="s">
@@ -5231,13 +5232,13 @@
     </row>
     <row r="236" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D236" s="13"/>
       <c r="E236" s="27" t="s">
@@ -5246,13 +5247,13 @@
     </row>
     <row r="237" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D237" s="13"/>
       <c r="E237" s="27" t="s">
@@ -5261,13 +5262,13 @@
     </row>
     <row r="238" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D238" s="13"/>
       <c r="E238" s="27" t="s">
@@ -5276,13 +5277,13 @@
     </row>
     <row r="239" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D239" s="13"/>
       <c r="E239" s="27" t="s">
@@ -5291,13 +5292,13 @@
     </row>
     <row r="240" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D240" s="13"/>
       <c r="E240" s="27" t="s">
@@ -5306,13 +5307,13 @@
     </row>
     <row r="241" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D241" s="13"/>
       <c r="E241" s="27" t="s">
@@ -5321,13 +5322,13 @@
     </row>
     <row r="242" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D242" s="13"/>
       <c r="E242" s="27" t="s">
@@ -5336,13 +5337,13 @@
     </row>
     <row r="243" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D243" s="13"/>
       <c r="E243" s="27" t="s">
@@ -5351,13 +5352,13 @@
     </row>
     <row r="244" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D244" s="13"/>
       <c r="E244" s="27" t="s">
@@ -5366,13 +5367,13 @@
     </row>
     <row r="245" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D245" s="13"/>
       <c r="E245" s="27" t="s">
@@ -5381,13 +5382,13 @@
     </row>
     <row r="246" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D246" s="13"/>
       <c r="E246" s="27" t="s">
@@ -5396,13 +5397,13 @@
     </row>
     <row r="247" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D247" s="13"/>
       <c r="E247" s="27" t="s">
@@ -5411,13 +5412,13 @@
     </row>
     <row r="248" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D248" s="13"/>
       <c r="E248" s="27" t="s">
@@ -5426,13 +5427,13 @@
     </row>
     <row r="249" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D249" s="13"/>
       <c r="E249" s="27" t="s">
@@ -5441,13 +5442,13 @@
     </row>
     <row r="250" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D250" s="13"/>
       <c r="E250" s="27" t="s">
@@ -5456,13 +5457,13 @@
     </row>
     <row r="251" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B251" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D251" s="19"/>
       <c r="E251" s="14" t="s">
@@ -5471,13 +5472,13 @@
     </row>
     <row r="252" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B252" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="C252" s="65" t="s">
         <v>268</v>
-      </c>
-      <c r="C252" s="65" t="s">
-        <v>269</v>
       </c>
       <c r="D252" s="13"/>
       <c r="E252" s="66" t="s">
@@ -5486,13 +5487,13 @@
     </row>
     <row r="253" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B253" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="C253" s="74" t="s">
         <v>270</v>
-      </c>
-      <c r="C253" s="74" t="s">
-        <v>271</v>
       </c>
       <c r="D253" s="13"/>
       <c r="E253" s="66" t="s">
@@ -5501,7 +5502,7 @@
     </row>
     <row r="254" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B254" s="65" t="s">
         <v>68</v>
@@ -5516,7 +5517,7 @@
     </row>
     <row r="255" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B255" s="65" t="s">
         <v>68</v>
@@ -5531,7 +5532,7 @@
     </row>
     <row r="256" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B256" s="65" t="s">
         <v>90</v>
@@ -5546,7 +5547,7 @@
     </row>
     <row r="257" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B257" s="65" t="s">
         <v>90</v>
@@ -5561,7 +5562,7 @@
     </row>
     <row r="258" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B258" s="65" t="s">
         <v>90</v>
@@ -5576,7 +5577,7 @@
     </row>
     <row r="259" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B259" s="67" t="s">
         <v>90</v>
@@ -5591,13 +5592,13 @@
     </row>
     <row r="260" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B260" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C260" s="65" t="s">
         <v>209</v>
-      </c>
-      <c r="C260" s="65" t="s">
-        <v>210</v>
       </c>
       <c r="D260" s="13"/>
       <c r="E260" s="66" t="s">
@@ -5606,13 +5607,13 @@
     </row>
     <row r="261" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B261" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="C261" s="65" t="s">
         <v>272</v>
-      </c>
-      <c r="C261" s="65" t="s">
-        <v>273</v>
       </c>
       <c r="D261" s="13"/>
       <c r="E261" s="66" t="s">
@@ -5621,7 +5622,7 @@
     </row>
     <row r="262" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B262" s="65" t="s">
         <v>48</v>
@@ -5636,13 +5637,13 @@
     </row>
     <row r="263" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B263" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="C263" s="65" t="s">
         <v>262</v>
-      </c>
-      <c r="C263" s="65" t="s">
-        <v>263</v>
       </c>
       <c r="D263" s="13"/>
       <c r="E263" s="66" t="s">
@@ -5651,13 +5652,13 @@
     </row>
     <row r="264" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B264" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="C264" s="67" t="s">
         <v>183</v>
-      </c>
-      <c r="C264" s="67" t="s">
-        <v>184</v>
       </c>
       <c r="D264" s="19"/>
       <c r="E264" s="68" t="s">
@@ -5666,13 +5667,13 @@
     </row>
     <row r="265" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B265" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="C265" s="65" t="s">
         <v>274</v>
-      </c>
-      <c r="C265" s="65" t="s">
-        <v>275</v>
       </c>
       <c r="D265" s="13"/>
       <c r="E265" s="66" t="s">
@@ -5681,13 +5682,13 @@
     </row>
     <row r="266" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B266" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="C266" s="67" t="s">
         <v>276</v>
-      </c>
-      <c r="C266" s="67" t="s">
-        <v>277</v>
       </c>
       <c r="D266" s="19"/>
       <c r="E266" s="68" t="s">
@@ -5696,7 +5697,7 @@
     </row>
     <row r="267" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B267" s="13" t="s">
         <v>90</v>
@@ -5711,7 +5712,7 @@
     </row>
     <row r="268" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B268" s="13" t="s">
         <v>90</v>
@@ -5726,7 +5727,7 @@
     </row>
     <row r="269" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B269" s="13" t="s">
         <v>90</v>
@@ -5741,7 +5742,7 @@
     </row>
     <row r="270" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B270" s="19" t="s">
         <v>90</v>
@@ -5756,13 +5757,13 @@
     </row>
     <row r="271" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B271" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="C271" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="D271" s="4"/>
       <c r="E271" s="9" t="s">
@@ -5771,13 +5772,13 @@
     </row>
     <row r="272" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B272" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B272" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="C272" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D272" s="4"/>
       <c r="E272" s="9" t="s">
@@ -5786,7 +5787,7 @@
     </row>
     <row r="273" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>1</v>
@@ -5801,7 +5802,7 @@
     </row>
     <row r="274" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>1</v>
@@ -5816,7 +5817,7 @@
     </row>
     <row r="275" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>1</v>
@@ -5831,7 +5832,7 @@
     </row>
     <row r="276" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>90</v>
@@ -5846,7 +5847,7 @@
     </row>
     <row r="277" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>90</v>
@@ -5861,7 +5862,7 @@
     </row>
     <row r="278" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>90</v>
@@ -5876,7 +5877,7 @@
     </row>
     <row r="279" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>90</v>
@@ -5891,7 +5892,7 @@
     </row>
     <row r="280" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>68</v>
@@ -5906,7 +5907,7 @@
     </row>
     <row r="281" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>68</v>
@@ -5921,16 +5922,16 @@
     </row>
     <row r="282" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B282" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C282" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C282" s="4" t="s">
+      <c r="D282" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="D282" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="E282" s="9" t="s">
         <v>26</v>
@@ -5938,13 +5939,13 @@
     </row>
     <row r="283" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D283" s="4"/>
       <c r="E283" s="9" t="s">
@@ -5953,13 +5954,13 @@
     </row>
     <row r="284" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D284" s="4"/>
       <c r="E284" s="9" t="s">
@@ -5968,13 +5969,13 @@
     </row>
     <row r="285" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D285" s="4"/>
       <c r="E285" s="9" t="s">
@@ -5983,13 +5984,13 @@
     </row>
     <row r="286" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D286" s="4"/>
       <c r="E286" s="9" t="s">
@@ -5998,13 +5999,13 @@
     </row>
     <row r="287" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D287" s="4"/>
       <c r="E287" s="9" t="s">
@@ -6013,13 +6014,13 @@
     </row>
     <row r="288" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D288" s="4"/>
       <c r="E288" s="9" t="s">
@@ -6028,13 +6029,13 @@
     </row>
     <row r="289" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D289" s="4"/>
       <c r="E289" s="9" t="s">
@@ -6043,13 +6044,13 @@
     </row>
     <row r="290" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D290" s="7"/>
       <c r="E290" s="11" t="s">
@@ -6058,13 +6059,13 @@
     </row>
     <row r="291" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B291" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C291" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D291" s="4"/>
       <c r="E291" s="9" t="s">
@@ -6073,7 +6074,7 @@
     </row>
     <row r="292" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B292" s="4" t="s">
         <v>90</v>
@@ -6088,7 +6089,7 @@
     </row>
     <row r="293" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>90</v>
@@ -6103,7 +6104,7 @@
     </row>
     <row r="294" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>90</v>
@@ -6118,7 +6119,7 @@
     </row>
     <row r="295" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>90</v>
@@ -6133,7 +6134,7 @@
     </row>
     <row r="296" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>68</v>
@@ -6148,7 +6149,7 @@
     </row>
     <row r="297" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>68</v>
@@ -6163,7 +6164,7 @@
     </row>
     <row r="298" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B298" s="4" t="s">
         <v>50</v>
@@ -6178,7 +6179,7 @@
     </row>
     <row r="299" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B299" s="4" t="s">
         <v>50</v>
@@ -6193,7 +6194,7 @@
     </row>
     <row r="300" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>98</v>
@@ -6208,7 +6209,7 @@
     </row>
     <row r="301" spans="1:5" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B301" s="36" t="s">
         <v>45</v>
@@ -6225,7 +6226,7 @@
     </row>
     <row r="302" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B302" s="36" t="s">
         <v>0</v>
@@ -6240,10 +6241,10 @@
     </row>
     <row r="303" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B303" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C303" s="36" t="s">
         <v>7</v>
@@ -6255,7 +6256,7 @@
     </row>
     <row r="304" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B304" s="36" t="s">
         <v>18</v>
@@ -6270,7 +6271,7 @@
     </row>
     <row r="305" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B305" s="36" t="s">
         <v>18</v>
@@ -6285,7 +6286,7 @@
     </row>
     <row r="306" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B306" s="52" t="s">
         <v>18</v>
@@ -6300,7 +6301,7 @@
     </row>
     <row r="307" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B307" s="36" t="s">
         <v>85</v>
@@ -6315,7 +6316,7 @@
     </row>
     <row r="308" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B308" s="36" t="s">
         <v>85</v>
@@ -6330,7 +6331,7 @@
     </row>
     <row r="309" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B309" s="36" t="s">
         <v>85</v>
@@ -6345,10 +6346,10 @@
     </row>
     <row r="310" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B310" s="36" t="s">
         <v>203</v>
-      </c>
-      <c r="B310" s="36" t="s">
-        <v>204</v>
       </c>
       <c r="C310" s="36" t="s">
         <v>33</v>
@@ -6360,7 +6361,7 @@
     </row>
     <row r="311" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B311" s="54" t="s">
         <v>96</v>
@@ -6375,13 +6376,13 @@
     </row>
     <row r="312" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B312" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C312" s="36" t="s">
         <v>205</v>
-      </c>
-      <c r="C312" s="36" t="s">
-        <v>206</v>
       </c>
       <c r="D312" s="4"/>
       <c r="E312" s="37" t="s">
@@ -6390,13 +6391,13 @@
     </row>
     <row r="313" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B313" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C313" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D313" s="4"/>
       <c r="E313" s="37" t="s">
@@ -6405,7 +6406,7 @@
     </row>
     <row r="314" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>18</v>
@@ -6420,7 +6421,7 @@
     </row>
     <row r="315" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B315" s="4" t="s">
         <v>18</v>
@@ -6435,7 +6436,7 @@
     </row>
     <row r="316" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B316" s="7" t="s">
         <v>18</v>
@@ -6450,13 +6451,13 @@
     </row>
     <row r="317" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B317" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="B317" s="54" t="s">
+      <c r="C317" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="C317" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="D317" s="4"/>
       <c r="E317" s="9" t="s">
@@ -6465,7 +6466,7 @@
     </row>
     <row r="318" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B318" s="76" t="s">
         <v>85</v>
@@ -6480,7 +6481,7 @@
     </row>
     <row r="319" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B319" s="76" t="s">
         <v>85</v>
@@ -6495,7 +6496,7 @@
     </row>
     <row r="320" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B320" s="76" t="s">
         <v>85</v>
@@ -6510,7 +6511,7 @@
     </row>
     <row r="321" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B321" s="76" t="s">
         <v>50</v>
@@ -6525,7 +6526,7 @@
     </row>
     <row r="322" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B322" s="76" t="s">
         <v>50</v>
@@ -6540,7 +6541,7 @@
     </row>
     <row r="323" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B323" s="76" t="s">
         <v>0</v>
@@ -6555,7 +6556,7 @@
     </row>
     <row r="324" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B324" s="55" t="s">
         <v>96</v>
@@ -6570,7 +6571,7 @@
     </row>
     <row r="325" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B325" s="7" t="s">
         <v>0</v>
@@ -6585,7 +6586,7 @@
     </row>
     <row r="326" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>48</v>
@@ -6600,7 +6601,7 @@
     </row>
     <row r="327" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>68</v>
@@ -6615,7 +6616,7 @@
     </row>
     <row r="328" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B328" s="4" t="s">
         <v>68</v>
@@ -6630,13 +6631,13 @@
     </row>
     <row r="329" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B329" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C329" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C329" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="D329" s="4"/>
       <c r="E329" s="9" t="s">
@@ -6645,13 +6646,13 @@
     </row>
     <row r="330" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C330" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D330" s="4"/>
       <c r="E330" s="9" t="s">
@@ -6660,13 +6661,13 @@
     </row>
     <row r="331" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B331" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C331" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="C331" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="D331" s="4"/>
       <c r="E331" s="9" t="s">
@@ -6675,7 +6676,7 @@
     </row>
     <row r="332" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B332" s="4" t="s">
         <v>50</v>
@@ -6690,7 +6691,7 @@
     </row>
     <row r="333" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B333" s="4" t="s">
         <v>50</v>
@@ -6705,7 +6706,7 @@
     </row>
     <row r="334" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B334" s="4" t="s">
         <v>81</v>
@@ -6720,7 +6721,7 @@
     </row>
     <row r="335" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B335" s="4" t="s">
         <v>96</v>
@@ -6735,13 +6736,13 @@
     </row>
     <row r="336" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D336" s="7"/>
       <c r="E336" s="11" t="s">

--- a/input/phenotype_microbiome_dog.xlsx
+++ b/input/phenotype_microbiome_dog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\91882876_3_12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\132688_2_13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FE51EB-39F5-45AC-AFBA-2905BC76E465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0533895C-235E-4B0F-B880-94ACD4F12C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59370" yWindow="420" windowWidth="11175" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="5" r:id="rId1"/>
@@ -695,12 +695,6 @@
     <t>s__Desulfovibrio_desulfuricans</t>
   </si>
   <si>
-    <t>Desulfovibrio vulgari</t>
-  </si>
-  <si>
-    <t>s__Desulfovibrio vulgari</t>
-  </si>
-  <si>
     <t>Borrelia burgdorferi</t>
   </si>
   <si>
@@ -870,7 +864,12 @@
   </si>
   <si>
     <t>s__Faecalibacterium_prausnitzii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desulfovibrio vulgaris</t>
+  </si>
+  <si>
+    <t>s__Desulfovibrio_vulgaris</t>
   </si>
 </sst>
 </file>
@@ -1683,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8871BB2B-37C0-44CD-B7A8-BCB5971E399A}">
   <dimension ref="A1:E1076"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2723,7 +2722,7 @@
         <v>100</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="9" t="s">
@@ -2885,10 +2884,10 @@
         <v>103</v>
       </c>
       <c r="B80" s="65" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C80" s="65" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="66" t="s">
@@ -2900,10 +2899,10 @@
         <v>103</v>
       </c>
       <c r="B81" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="C81" s="65" t="s">
         <v>254</v>
-      </c>
-      <c r="C81" s="65" t="s">
-        <v>256</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="66" t="s">
@@ -2915,10 +2914,10 @@
         <v>103</v>
       </c>
       <c r="B82" s="65" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C82" s="65" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="66" t="s">
@@ -2930,10 +2929,10 @@
         <v>103</v>
       </c>
       <c r="B83" s="65" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C83" s="65" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="66" t="s">
@@ -2945,10 +2944,10 @@
         <v>103</v>
       </c>
       <c r="B84" s="65" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C84" s="65" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="66" t="s">
@@ -2960,10 +2959,10 @@
         <v>103</v>
       </c>
       <c r="B85" s="65" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C85" s="65" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="66" t="s">
@@ -3320,10 +3319,10 @@
         <v>120</v>
       </c>
       <c r="B109" s="67" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C109" s="67" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="68" t="s">
@@ -3440,10 +3439,10 @@
         <v>213</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="D117" s="19"/>
       <c r="E117" s="14" t="s">
@@ -4194,10 +4193,10 @@
         <v>145</v>
       </c>
       <c r="B167" s="67" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C167" s="71" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D167" s="34"/>
       <c r="E167" s="72" t="s">
@@ -4344,10 +4343,10 @@
         <v>148</v>
       </c>
       <c r="B177" s="65" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C177" s="65" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D177" s="13"/>
       <c r="E177" s="66" t="s">
@@ -4663,7 +4662,7 @@
         <v>156</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C198" s="13" t="s">
         <v>162</v>
@@ -4678,7 +4677,7 @@
         <v>156</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C199" s="13" t="s">
         <v>163</v>
@@ -4813,7 +4812,7 @@
         <v>166</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C208" s="13" t="s">
         <v>169</v>
@@ -4828,7 +4827,7 @@
         <v>166</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C209" s="13" t="s">
         <v>170</v>
@@ -4843,7 +4842,7 @@
         <v>166</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C210" s="25" t="s">
         <v>171</v>
@@ -4858,10 +4857,10 @@
         <v>172</v>
       </c>
       <c r="B211" s="50" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C211" s="50" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D211" s="13"/>
       <c r="E211" s="27" t="s">
@@ -4873,10 +4872,10 @@
         <v>172</v>
       </c>
       <c r="B212" s="50" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C212" s="50" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D212" s="13"/>
       <c r="E212" s="27" t="s">
@@ -5113,10 +5112,10 @@
         <v>179</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D228" s="13"/>
       <c r="E228" s="27" t="s">
@@ -5143,10 +5142,10 @@
         <v>179</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D230" s="26" t="s">
         <v>125</v>
@@ -5160,10 +5159,10 @@
         <v>179</v>
       </c>
       <c r="B231" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C231" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="C231" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="D231" s="13"/>
       <c r="E231" s="27" t="s">
@@ -5175,10 +5174,10 @@
         <v>179</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D232" s="13"/>
       <c r="E232" s="27" t="s">
@@ -5190,7 +5189,7 @@
         <v>179</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C233" s="13" t="s">
         <v>192</v>
@@ -5205,10 +5204,10 @@
         <v>179</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D234" s="13"/>
       <c r="E234" s="27" t="s">
@@ -5220,10 +5219,10 @@
         <v>179</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D235" s="13"/>
       <c r="E235" s="27" t="s">
@@ -5235,10 +5234,10 @@
         <v>179</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D236" s="13"/>
       <c r="E236" s="27" t="s">
@@ -5250,10 +5249,10 @@
         <v>179</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D237" s="13"/>
       <c r="E237" s="27" t="s">
@@ -5265,10 +5264,10 @@
         <v>179</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D238" s="13"/>
       <c r="E238" s="27" t="s">
@@ -5280,10 +5279,10 @@
         <v>179</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D239" s="13"/>
       <c r="E239" s="27" t="s">
@@ -5295,10 +5294,10 @@
         <v>179</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D240" s="13"/>
       <c r="E240" s="27" t="s">
@@ -5310,10 +5309,10 @@
         <v>179</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D241" s="13"/>
       <c r="E241" s="27" t="s">
@@ -5325,10 +5324,10 @@
         <v>179</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D242" s="13"/>
       <c r="E242" s="27" t="s">
@@ -5340,10 +5339,10 @@
         <v>179</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D243" s="13"/>
       <c r="E243" s="27" t="s">
@@ -5355,10 +5354,10 @@
         <v>179</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D244" s="13"/>
       <c r="E244" s="27" t="s">
@@ -5370,10 +5369,10 @@
         <v>179</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D245" s="13"/>
       <c r="E245" s="27" t="s">
@@ -5385,10 +5384,10 @@
         <v>179</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D246" s="13"/>
       <c r="E246" s="27" t="s">
@@ -5400,10 +5399,10 @@
         <v>179</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D247" s="13"/>
       <c r="E247" s="27" t="s">
@@ -5415,10 +5414,10 @@
         <v>179</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D248" s="13"/>
       <c r="E248" s="27" t="s">
@@ -5430,10 +5429,10 @@
         <v>179</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D249" s="13"/>
       <c r="E249" s="27" t="s">
@@ -5445,10 +5444,10 @@
         <v>179</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D250" s="13"/>
       <c r="E250" s="27" t="s">
@@ -5460,10 +5459,10 @@
         <v>179</v>
       </c>
       <c r="B251" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D251" s="19"/>
       <c r="E251" s="14" t="s">
@@ -5475,10 +5474,10 @@
         <v>184</v>
       </c>
       <c r="B252" s="65" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C252" s="65" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D252" s="13"/>
       <c r="E252" s="66" t="s">
@@ -5490,10 +5489,10 @@
         <v>184</v>
       </c>
       <c r="B253" s="74" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C253" s="74" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D253" s="13"/>
       <c r="E253" s="66" t="s">
@@ -5610,10 +5609,10 @@
         <v>184</v>
       </c>
       <c r="B261" s="65" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C261" s="65" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D261" s="13"/>
       <c r="E261" s="66" t="s">
@@ -5640,10 +5639,10 @@
         <v>184</v>
       </c>
       <c r="B263" s="65" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C263" s="65" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D263" s="13"/>
       <c r="E263" s="66" t="s">
@@ -5670,10 +5669,10 @@
         <v>184</v>
       </c>
       <c r="B265" s="65" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C265" s="65" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D265" s="13"/>
       <c r="E265" s="66" t="s">
@@ -5685,10 +5684,10 @@
         <v>184</v>
       </c>
       <c r="B266" s="67" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C266" s="67" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D266" s="19"/>
       <c r="E266" s="68" t="s">
@@ -6586,7 +6585,7 @@
     </row>
     <row r="326" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>48</v>
@@ -6601,7 +6600,7 @@
     </row>
     <row r="327" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>68</v>
@@ -6616,7 +6615,7 @@
     </row>
     <row r="328" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B328" s="4" t="s">
         <v>68</v>
@@ -6631,7 +6630,7 @@
     </row>
     <row r="329" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>180</v>
@@ -6646,7 +6645,7 @@
     </row>
     <row r="330" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B330" s="4" t="s">
         <v>180</v>
@@ -6661,7 +6660,7 @@
     </row>
     <row r="331" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B331" s="4" t="s">
         <v>182</v>
@@ -6676,7 +6675,7 @@
     </row>
     <row r="332" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B332" s="4" t="s">
         <v>50</v>
@@ -6691,7 +6690,7 @@
     </row>
     <row r="333" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B333" s="4" t="s">
         <v>50</v>
@@ -6706,7 +6705,7 @@
     </row>
     <row r="334" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B334" s="4" t="s">
         <v>81</v>
@@ -6721,7 +6720,7 @@
     </row>
     <row r="335" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B335" s="4" t="s">
         <v>96</v>
@@ -6736,7 +6735,7 @@
     </row>
     <row r="336" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B336" s="7" t="s">
         <v>144</v>

--- a/input/phenotype_microbiome_dog.xlsx
+++ b/input/phenotype_microbiome_dog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\132688_2_13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\525916_2_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0533895C-235E-4B0F-B880-94ACD4F12C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097BFD8D-6048-4D21-A417-8669CBA782EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59370" yWindow="420" windowWidth="11175" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49575" yWindow="2610" windowWidth="22425" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="5" r:id="rId1"/>
@@ -833,9 +833,6 @@
     <t>g__Intestinimonas</t>
   </si>
   <si>
-    <t>Oscillobacter valericigenes</t>
-  </si>
-  <si>
     <t>s__Oscillibacter_valericigenes</t>
   </si>
   <si>
@@ -870,6 +867,10 @@
   </si>
   <si>
     <t>s__Desulfovibrio_vulgaris</t>
+  </si>
+  <si>
+    <t>Oscillibacter valericigenes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1682,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8871BB2B-37C0-44CD-B7A8-BCB5971E399A}">
   <dimension ref="A1:E1076"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H251" sqref="H251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2722,7 +2723,7 @@
         <v>100</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="9" t="s">
@@ -3439,10 +3440,10 @@
         <v>213</v>
       </c>
       <c r="B117" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C117" s="19" t="s">
         <v>276</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>277</v>
       </c>
       <c r="D117" s="19"/>
       <c r="E117" s="14" t="s">
@@ -5474,10 +5475,10 @@
         <v>184</v>
       </c>
       <c r="B252" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="C252" s="65" t="s">
         <v>265</v>
-      </c>
-      <c r="C252" s="65" t="s">
-        <v>266</v>
       </c>
       <c r="D252" s="13"/>
       <c r="E252" s="66" t="s">
@@ -5489,10 +5490,10 @@
         <v>184</v>
       </c>
       <c r="B253" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="C253" s="74" t="s">
         <v>267</v>
-      </c>
-      <c r="C253" s="74" t="s">
-        <v>268</v>
       </c>
       <c r="D253" s="13"/>
       <c r="E253" s="66" t="s">
@@ -5609,10 +5610,10 @@
         <v>184</v>
       </c>
       <c r="B261" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="C261" s="65" t="s">
         <v>269</v>
-      </c>
-      <c r="C261" s="65" t="s">
-        <v>270</v>
       </c>
       <c r="D261" s="13"/>
       <c r="E261" s="66" t="s">
@@ -5669,10 +5670,10 @@
         <v>184</v>
       </c>
       <c r="B265" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="C265" s="65" t="s">
         <v>271</v>
-      </c>
-      <c r="C265" s="65" t="s">
-        <v>272</v>
       </c>
       <c r="D265" s="13"/>
       <c r="E265" s="66" t="s">
@@ -5684,10 +5685,10 @@
         <v>184</v>
       </c>
       <c r="B266" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="C266" s="67" t="s">
         <v>273</v>
-      </c>
-      <c r="C266" s="67" t="s">
-        <v>274</v>
       </c>
       <c r="D266" s="19"/>
       <c r="E266" s="68" t="s">

--- a/input/phenotype_microbiome_dog.xlsx
+++ b/input/phenotype_microbiome_dog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\525916_2_10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\853422_5_35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097BFD8D-6048-4D21-A417-8669CBA782EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1504414-66F0-478F-B87C-064CC6037914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49575" yWindow="2610" windowWidth="22425" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49680" yWindow="3015" windowWidth="20685" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="5" r:id="rId1"/>
@@ -554,9 +554,6 @@
     <t>s__Chlamydophila_avium</t>
   </si>
   <si>
-    <t>Cutaneous T‐cell Lymphoma</t>
-  </si>
-  <si>
     <t>Chronic Arthritis</t>
   </si>
   <si>
@@ -870,6 +867,10 @@
   </si>
   <si>
     <t>Oscillibacter valericigenes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cutaneous T-cell Lymphoma</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1683,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8871BB2B-37C0-44CD-B7A8-BCB5971E399A}">
   <dimension ref="A1:E1076"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H251" sqref="H251"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2705,10 +2706,10 @@
         <v>95</v>
       </c>
       <c r="B68" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="9" t="s">
@@ -2723,7 +2724,7 @@
         <v>100</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="9" t="s">
@@ -2885,10 +2886,10 @@
         <v>103</v>
       </c>
       <c r="B80" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="C80" s="65" t="s">
         <v>252</v>
-      </c>
-      <c r="C80" s="65" t="s">
-        <v>253</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="66" t="s">
@@ -2900,10 +2901,10 @@
         <v>103</v>
       </c>
       <c r="B81" s="65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C81" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="66" t="s">
@@ -2915,10 +2916,10 @@
         <v>103</v>
       </c>
       <c r="B82" s="65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C82" s="65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="66" t="s">
@@ -2930,10 +2931,10 @@
         <v>103</v>
       </c>
       <c r="B83" s="65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C83" s="65" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="66" t="s">
@@ -2945,10 +2946,10 @@
         <v>103</v>
       </c>
       <c r="B84" s="65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C84" s="65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="66" t="s">
@@ -2960,10 +2961,10 @@
         <v>103</v>
       </c>
       <c r="B85" s="65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C85" s="65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="66" t="s">
@@ -3320,10 +3321,10 @@
         <v>120</v>
       </c>
       <c r="B109" s="67" t="s">
+        <v>258</v>
+      </c>
+      <c r="C109" s="67" t="s">
         <v>259</v>
-      </c>
-      <c r="C109" s="67" t="s">
-        <v>260</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="68" t="s">
@@ -3332,13 +3333,13 @@
     </row>
     <row r="110" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B110" s="41" t="s">
         <v>101</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="60" t="s">
@@ -3347,7 +3348,7 @@
     </row>
     <row r="111" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B111" s="39" t="s">
         <v>68</v>
@@ -3362,7 +3363,7 @@
     </row>
     <row r="112" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B112" s="39" t="s">
         <v>68</v>
@@ -3377,7 +3378,7 @@
     </row>
     <row r="113" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B113" s="39" t="s">
         <v>55</v>
@@ -3392,7 +3393,7 @@
     </row>
     <row r="114" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B114" s="41" t="s">
         <v>48</v>
@@ -3407,13 +3408,13 @@
     </row>
     <row r="115" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B115" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C115" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="27" t="s">
@@ -3422,13 +3423,13 @@
     </row>
     <row r="116" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B116" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C116" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>218</v>
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="27" t="s">
@@ -3437,13 +3438,13 @@
     </row>
     <row r="117" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B117" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C117" s="19" t="s">
         <v>275</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="D117" s="19"/>
       <c r="E117" s="14" t="s">
@@ -4164,10 +4165,10 @@
         <v>145</v>
       </c>
       <c r="B165" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="C165" s="69" t="s">
         <v>208</v>
-      </c>
-      <c r="C165" s="69" t="s">
-        <v>209</v>
       </c>
       <c r="D165" s="22"/>
       <c r="E165" s="70" t="s">
@@ -4179,10 +4180,10 @@
         <v>145</v>
       </c>
       <c r="B166" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C166" s="69" t="s">
         <v>176</v>
-      </c>
-      <c r="C166" s="69" t="s">
-        <v>177</v>
       </c>
       <c r="D166" s="22"/>
       <c r="E166" s="70" t="s">
@@ -4194,10 +4195,10 @@
         <v>145</v>
       </c>
       <c r="B167" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="C167" s="71" t="s">
         <v>261</v>
-      </c>
-      <c r="C167" s="71" t="s">
-        <v>262</v>
       </c>
       <c r="D167" s="34"/>
       <c r="E167" s="72" t="s">
@@ -4344,10 +4345,10 @@
         <v>148</v>
       </c>
       <c r="B177" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="C177" s="65" t="s">
         <v>263</v>
-      </c>
-      <c r="C177" s="65" t="s">
-        <v>264</v>
       </c>
       <c r="D177" s="13"/>
       <c r="E177" s="66" t="s">
@@ -4663,7 +4664,7 @@
         <v>156</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C198" s="13" t="s">
         <v>162</v>
@@ -4678,7 +4679,7 @@
         <v>156</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C199" s="13" t="s">
         <v>163</v>
@@ -4813,7 +4814,7 @@
         <v>166</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C208" s="13" t="s">
         <v>169</v>
@@ -4828,7 +4829,7 @@
         <v>166</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C209" s="13" t="s">
         <v>170</v>
@@ -4843,7 +4844,7 @@
         <v>166</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C210" s="25" t="s">
         <v>171</v>
@@ -4855,13 +4856,13 @@
     </row>
     <row r="211" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="20" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="B211" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="C211" s="50" t="s">
         <v>221</v>
-      </c>
-      <c r="C211" s="50" t="s">
-        <v>222</v>
       </c>
       <c r="D211" s="13"/>
       <c r="E211" s="27" t="s">
@@ -4870,13 +4871,13 @@
     </row>
     <row r="212" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="20" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="B212" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="C212" s="50" t="s">
         <v>223</v>
-      </c>
-      <c r="C212" s="50" t="s">
-        <v>224</v>
       </c>
       <c r="D212" s="13"/>
       <c r="E212" s="27" t="s">
@@ -4884,8 +4885,8 @@
       </c>
     </row>
     <row r="213" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="23" t="s">
-        <v>172</v>
+      <c r="A213" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="B213" s="34" t="s">
         <v>28</v>
@@ -4900,13 +4901,13 @@
     </row>
     <row r="214" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="C214" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="9" t="s">
@@ -4915,13 +4916,13 @@
     </row>
     <row r="215" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B215" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C215" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="D215" s="4"/>
       <c r="E215" s="9" t="s">
@@ -4930,7 +4931,7 @@
     </row>
     <row r="216" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>109</v>
@@ -4945,7 +4946,7 @@
     </row>
     <row r="217" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>109</v>
@@ -4960,7 +4961,7 @@
     </row>
     <row r="218" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>109</v>
@@ -4975,7 +4976,7 @@
     </row>
     <row r="219" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>96</v>
@@ -4990,7 +4991,7 @@
     </row>
     <row r="220" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A220" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B220" s="49" t="s">
         <v>165</v>
@@ -5005,7 +5006,7 @@
     </row>
     <row r="221" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B221" s="13" t="s">
         <v>90</v>
@@ -5020,7 +5021,7 @@
     </row>
     <row r="222" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B222" s="13" t="s">
         <v>90</v>
@@ -5035,7 +5036,7 @@
     </row>
     <row r="223" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B223" s="13" t="s">
         <v>90</v>
@@ -5050,7 +5051,7 @@
     </row>
     <row r="224" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B224" s="13" t="s">
         <v>90</v>
@@ -5065,7 +5066,7 @@
     </row>
     <row r="225" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B225" s="13" t="s">
         <v>109</v>
@@ -5080,7 +5081,7 @@
     </row>
     <row r="226" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B226" s="13" t="s">
         <v>109</v>
@@ -5095,7 +5096,7 @@
     </row>
     <row r="227" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B227" s="13" t="s">
         <v>109</v>
@@ -5110,13 +5111,13 @@
     </row>
     <row r="228" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B228" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C228" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="C228" s="13" t="s">
-        <v>228</v>
       </c>
       <c r="D228" s="13"/>
       <c r="E228" s="27" t="s">
@@ -5125,7 +5126,7 @@
     </row>
     <row r="229" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B229" s="13" t="s">
         <v>101</v>
@@ -5140,13 +5141,13 @@
     </row>
     <row r="230" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B230" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C230" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="C230" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="D230" s="26" t="s">
         <v>125</v>
@@ -5157,13 +5158,13 @@
     </row>
     <row r="231" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D231" s="13"/>
       <c r="E231" s="27" t="s">
@@ -5172,13 +5173,13 @@
     </row>
     <row r="232" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D232" s="13"/>
       <c r="E232" s="27" t="s">
@@ -5187,13 +5188,13 @@
     </row>
     <row r="233" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D233" s="13"/>
       <c r="E233" s="27" t="s">
@@ -5202,13 +5203,13 @@
     </row>
     <row r="234" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D234" s="13"/>
       <c r="E234" s="27" t="s">
@@ -5217,13 +5218,13 @@
     </row>
     <row r="235" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D235" s="13"/>
       <c r="E235" s="27" t="s">
@@ -5232,13 +5233,13 @@
     </row>
     <row r="236" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D236" s="13"/>
       <c r="E236" s="27" t="s">
@@ -5247,13 +5248,13 @@
     </row>
     <row r="237" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D237" s="13"/>
       <c r="E237" s="27" t="s">
@@ -5262,13 +5263,13 @@
     </row>
     <row r="238" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D238" s="13"/>
       <c r="E238" s="27" t="s">
@@ -5277,13 +5278,13 @@
     </row>
     <row r="239" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D239" s="13"/>
       <c r="E239" s="27" t="s">
@@ -5292,13 +5293,13 @@
     </row>
     <row r="240" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D240" s="13"/>
       <c r="E240" s="27" t="s">
@@ -5307,13 +5308,13 @@
     </row>
     <row r="241" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D241" s="13"/>
       <c r="E241" s="27" t="s">
@@ -5322,13 +5323,13 @@
     </row>
     <row r="242" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D242" s="13"/>
       <c r="E242" s="27" t="s">
@@ -5337,13 +5338,13 @@
     </row>
     <row r="243" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D243" s="13"/>
       <c r="E243" s="27" t="s">
@@ -5352,13 +5353,13 @@
     </row>
     <row r="244" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D244" s="13"/>
       <c r="E244" s="27" t="s">
@@ -5367,13 +5368,13 @@
     </row>
     <row r="245" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D245" s="13"/>
       <c r="E245" s="27" t="s">
@@ -5382,13 +5383,13 @@
     </row>
     <row r="246" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D246" s="13"/>
       <c r="E246" s="27" t="s">
@@ -5397,13 +5398,13 @@
     </row>
     <row r="247" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D247" s="13"/>
       <c r="E247" s="27" t="s">
@@ -5412,13 +5413,13 @@
     </row>
     <row r="248" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D248" s="13"/>
       <c r="E248" s="27" t="s">
@@ -5427,13 +5428,13 @@
     </row>
     <row r="249" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D249" s="13"/>
       <c r="E249" s="27" t="s">
@@ -5442,13 +5443,13 @@
     </row>
     <row r="250" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D250" s="13"/>
       <c r="E250" s="27" t="s">
@@ -5457,13 +5458,13 @@
     </row>
     <row r="251" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B251" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D251" s="19"/>
       <c r="E251" s="14" t="s">
@@ -5472,13 +5473,13 @@
     </row>
     <row r="252" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B252" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C252" s="65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D252" s="13"/>
       <c r="E252" s="66" t="s">
@@ -5487,13 +5488,13 @@
     </row>
     <row r="253" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B253" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="C253" s="74" t="s">
         <v>266</v>
-      </c>
-      <c r="C253" s="74" t="s">
-        <v>267</v>
       </c>
       <c r="D253" s="13"/>
       <c r="E253" s="66" t="s">
@@ -5502,7 +5503,7 @@
     </row>
     <row r="254" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B254" s="65" t="s">
         <v>68</v>
@@ -5517,7 +5518,7 @@
     </row>
     <row r="255" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B255" s="65" t="s">
         <v>68</v>
@@ -5532,7 +5533,7 @@
     </row>
     <row r="256" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B256" s="65" t="s">
         <v>90</v>
@@ -5547,7 +5548,7 @@
     </row>
     <row r="257" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B257" s="65" t="s">
         <v>90</v>
@@ -5562,7 +5563,7 @@
     </row>
     <row r="258" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B258" s="65" t="s">
         <v>90</v>
@@ -5577,7 +5578,7 @@
     </row>
     <row r="259" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B259" s="67" t="s">
         <v>90</v>
@@ -5592,13 +5593,13 @@
     </row>
     <row r="260" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B260" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="C260" s="65" t="s">
         <v>208</v>
-      </c>
-      <c r="C260" s="65" t="s">
-        <v>209</v>
       </c>
       <c r="D260" s="13"/>
       <c r="E260" s="66" t="s">
@@ -5607,13 +5608,13 @@
     </row>
     <row r="261" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B261" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="C261" s="65" t="s">
         <v>268</v>
-      </c>
-      <c r="C261" s="65" t="s">
-        <v>269</v>
       </c>
       <c r="D261" s="13"/>
       <c r="E261" s="66" t="s">
@@ -5622,7 +5623,7 @@
     </row>
     <row r="262" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B262" s="65" t="s">
         <v>48</v>
@@ -5637,13 +5638,13 @@
     </row>
     <row r="263" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B263" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="C263" s="65" t="s">
         <v>259</v>
-      </c>
-      <c r="C263" s="65" t="s">
-        <v>260</v>
       </c>
       <c r="D263" s="13"/>
       <c r="E263" s="66" t="s">
@@ -5652,13 +5653,13 @@
     </row>
     <row r="264" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B264" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="C264" s="67" t="s">
         <v>182</v>
-      </c>
-      <c r="C264" s="67" t="s">
-        <v>183</v>
       </c>
       <c r="D264" s="19"/>
       <c r="E264" s="68" t="s">
@@ -5667,13 +5668,13 @@
     </row>
     <row r="265" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B265" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="C265" s="65" t="s">
         <v>270</v>
-      </c>
-      <c r="C265" s="65" t="s">
-        <v>271</v>
       </c>
       <c r="D265" s="13"/>
       <c r="E265" s="66" t="s">
@@ -5682,13 +5683,13 @@
     </row>
     <row r="266" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B266" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="C266" s="67" t="s">
         <v>272</v>
-      </c>
-      <c r="C266" s="67" t="s">
-        <v>273</v>
       </c>
       <c r="D266" s="19"/>
       <c r="E266" s="68" t="s">
@@ -5697,7 +5698,7 @@
     </row>
     <row r="267" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B267" s="13" t="s">
         <v>90</v>
@@ -5712,7 +5713,7 @@
     </row>
     <row r="268" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B268" s="13" t="s">
         <v>90</v>
@@ -5727,7 +5728,7 @@
     </row>
     <row r="269" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B269" s="13" t="s">
         <v>90</v>
@@ -5742,7 +5743,7 @@
     </row>
     <row r="270" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B270" s="19" t="s">
         <v>90</v>
@@ -5757,13 +5758,13 @@
     </row>
     <row r="271" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B271" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="C271" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="D271" s="4"/>
       <c r="E271" s="9" t="s">
@@ -5772,13 +5773,13 @@
     </row>
     <row r="272" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B272" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B272" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="C272" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D272" s="4"/>
       <c r="E272" s="9" t="s">
@@ -5787,7 +5788,7 @@
     </row>
     <row r="273" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>1</v>
@@ -5802,7 +5803,7 @@
     </row>
     <row r="274" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>1</v>
@@ -5817,7 +5818,7 @@
     </row>
     <row r="275" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>1</v>
@@ -5832,7 +5833,7 @@
     </row>
     <row r="276" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>90</v>
@@ -5847,7 +5848,7 @@
     </row>
     <row r="277" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>90</v>
@@ -5862,7 +5863,7 @@
     </row>
     <row r="278" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>90</v>
@@ -5877,7 +5878,7 @@
     </row>
     <row r="279" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>90</v>
@@ -5892,7 +5893,7 @@
     </row>
     <row r="280" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>68</v>
@@ -5907,7 +5908,7 @@
     </row>
     <row r="281" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>68</v>
@@ -5922,16 +5923,16 @@
     </row>
     <row r="282" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B282" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C282" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C282" s="4" t="s">
+      <c r="D282" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="D282" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="E282" s="9" t="s">
         <v>26</v>
@@ -5939,13 +5940,13 @@
     </row>
     <row r="283" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D283" s="4"/>
       <c r="E283" s="9" t="s">
@@ -5954,13 +5955,13 @@
     </row>
     <row r="284" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D284" s="4"/>
       <c r="E284" s="9" t="s">
@@ -5969,13 +5970,13 @@
     </row>
     <row r="285" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D285" s="4"/>
       <c r="E285" s="9" t="s">
@@ -5984,13 +5985,13 @@
     </row>
     <row r="286" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D286" s="4"/>
       <c r="E286" s="9" t="s">
@@ -5999,13 +6000,13 @@
     </row>
     <row r="287" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D287" s="4"/>
       <c r="E287" s="9" t="s">
@@ -6014,13 +6015,13 @@
     </row>
     <row r="288" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D288" s="4"/>
       <c r="E288" s="9" t="s">
@@ -6029,13 +6030,13 @@
     </row>
     <row r="289" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D289" s="4"/>
       <c r="E289" s="9" t="s">
@@ -6044,13 +6045,13 @@
     </row>
     <row r="290" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D290" s="7"/>
       <c r="E290" s="11" t="s">
@@ -6059,7 +6060,7 @@
     </row>
     <row r="291" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>124</v>
@@ -6074,7 +6075,7 @@
     </row>
     <row r="292" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B292" s="4" t="s">
         <v>90</v>
@@ -6089,7 +6090,7 @@
     </row>
     <row r="293" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>90</v>
@@ -6104,7 +6105,7 @@
     </row>
     <row r="294" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>90</v>
@@ -6119,7 +6120,7 @@
     </row>
     <row r="295" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>90</v>
@@ -6134,7 +6135,7 @@
     </row>
     <row r="296" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>68</v>
@@ -6149,7 +6150,7 @@
     </row>
     <row r="297" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>68</v>
@@ -6164,7 +6165,7 @@
     </row>
     <row r="298" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B298" s="4" t="s">
         <v>50</v>
@@ -6179,7 +6180,7 @@
     </row>
     <row r="299" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B299" s="4" t="s">
         <v>50</v>
@@ -6194,7 +6195,7 @@
     </row>
     <row r="300" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>98</v>
@@ -6209,7 +6210,7 @@
     </row>
     <row r="301" spans="1:5" ht="75.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B301" s="36" t="s">
         <v>45</v>
@@ -6226,7 +6227,7 @@
     </row>
     <row r="302" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B302" s="36" t="s">
         <v>0</v>
@@ -6241,7 +6242,7 @@
     </row>
     <row r="303" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B303" s="36" t="s">
         <v>165</v>
@@ -6256,7 +6257,7 @@
     </row>
     <row r="304" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B304" s="36" t="s">
         <v>18</v>
@@ -6271,7 +6272,7 @@
     </row>
     <row r="305" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B305" s="36" t="s">
         <v>18</v>
@@ -6286,7 +6287,7 @@
     </row>
     <row r="306" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B306" s="52" t="s">
         <v>18</v>
@@ -6301,7 +6302,7 @@
     </row>
     <row r="307" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B307" s="36" t="s">
         <v>85</v>
@@ -6316,7 +6317,7 @@
     </row>
     <row r="308" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B308" s="36" t="s">
         <v>85</v>
@@ -6331,7 +6332,7 @@
     </row>
     <row r="309" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B309" s="36" t="s">
         <v>85</v>
@@ -6346,10 +6347,10 @@
     </row>
     <row r="310" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B310" s="36" t="s">
         <v>202</v>
-      </c>
-      <c r="B310" s="36" t="s">
-        <v>203</v>
       </c>
       <c r="C310" s="36" t="s">
         <v>33</v>
@@ -6361,7 +6362,7 @@
     </row>
     <row r="311" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B311" s="54" t="s">
         <v>96</v>
@@ -6376,13 +6377,13 @@
     </row>
     <row r="312" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B312" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C312" s="36" t="s">
         <v>204</v>
-      </c>
-      <c r="C312" s="36" t="s">
-        <v>205</v>
       </c>
       <c r="D312" s="4"/>
       <c r="E312" s="37" t="s">
@@ -6391,13 +6392,13 @@
     </row>
     <row r="313" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B313" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C313" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D313" s="4"/>
       <c r="E313" s="37" t="s">
@@ -6406,7 +6407,7 @@
     </row>
     <row r="314" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>18</v>
@@ -6421,7 +6422,7 @@
     </row>
     <row r="315" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B315" s="4" t="s">
         <v>18</v>
@@ -6436,7 +6437,7 @@
     </row>
     <row r="316" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B316" s="7" t="s">
         <v>18</v>
@@ -6451,13 +6452,13 @@
     </row>
     <row r="317" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B317" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="B317" s="54" t="s">
+      <c r="C317" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="C317" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="D317" s="4"/>
       <c r="E317" s="9" t="s">
@@ -6466,7 +6467,7 @@
     </row>
     <row r="318" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B318" s="76" t="s">
         <v>85</v>
@@ -6481,7 +6482,7 @@
     </row>
     <row r="319" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B319" s="76" t="s">
         <v>85</v>
@@ -6496,7 +6497,7 @@
     </row>
     <row r="320" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B320" s="76" t="s">
         <v>85</v>
@@ -6511,7 +6512,7 @@
     </row>
     <row r="321" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B321" s="76" t="s">
         <v>50</v>
@@ -6526,7 +6527,7 @@
     </row>
     <row r="322" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B322" s="76" t="s">
         <v>50</v>
@@ -6541,7 +6542,7 @@
     </row>
     <row r="323" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B323" s="76" t="s">
         <v>0</v>
@@ -6556,7 +6557,7 @@
     </row>
     <row r="324" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B324" s="55" t="s">
         <v>96</v>
@@ -6571,7 +6572,7 @@
     </row>
     <row r="325" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B325" s="7" t="s">
         <v>0</v>
@@ -6586,7 +6587,7 @@
     </row>
     <row r="326" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>48</v>
@@ -6601,7 +6602,7 @@
     </row>
     <row r="327" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>68</v>
@@ -6616,7 +6617,7 @@
     </row>
     <row r="328" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B328" s="4" t="s">
         <v>68</v>
@@ -6631,13 +6632,13 @@
     </row>
     <row r="329" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B329" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C329" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="C329" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="D329" s="4"/>
       <c r="E329" s="9" t="s">
@@ -6646,10 +6647,10 @@
     </row>
     <row r="330" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C330" s="51" t="s">
         <v>125</v>
@@ -6661,13 +6662,13 @@
     </row>
     <row r="331" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B331" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C331" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="C331" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="D331" s="4"/>
       <c r="E331" s="9" t="s">
@@ -6676,7 +6677,7 @@
     </row>
     <row r="332" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B332" s="4" t="s">
         <v>50</v>
@@ -6691,7 +6692,7 @@
     </row>
     <row r="333" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B333" s="4" t="s">
         <v>50</v>
@@ -6706,7 +6707,7 @@
     </row>
     <row r="334" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B334" s="4" t="s">
         <v>81</v>
@@ -6721,7 +6722,7 @@
     </row>
     <row r="335" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B335" s="4" t="s">
         <v>96</v>
@@ -6736,7 +6737,7 @@
     </row>
     <row r="336" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B336" s="7" t="s">
         <v>144</v>
